--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,76 +55,79 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>please</t>
@@ -485,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +575,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +607,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7272727272727273</v>
+        <v>0.5787671232876712</v>
       </c>
       <c r="C4">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="D4">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +625,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -646,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3004291845493562</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>163</v>
+        <v>424</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2209302325581395</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.925</v>
+        <v>0.8303571428571429</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="M6">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,13 +757,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +783,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +809,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8703703703703703</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,7 +835,7 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8627450980392157</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L10">
         <v>44</v>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +861,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7421875</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -884,13 +887,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -910,13 +913,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.726027397260274</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -928,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -936,13 +939,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7241379310344828</v>
+        <v>0.71875</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -962,13 +965,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.72</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,13 +991,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.717948717948718</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,13 +1017,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6551724137931034</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1043,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6363636363636364</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1066,13 +1069,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6153846153846154</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1084,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,13 +1095,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5833333333333334</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1118,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5666666666666667</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1147,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5600000000000001</v>
+        <v>0.4830287206266319</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1173,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5211267605633803</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="L23">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="M23">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>102</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1199,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4930555555555556</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L24">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1225,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4571428571428571</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1251,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4108527131782946</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1274,13 +1277,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3043478260869565</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1292,7 +1295,33 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>64</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.3389121338912134</v>
+      </c>
+      <c r="L28">
+        <v>81</v>
+      </c>
+      <c r="M28">
+        <v>81</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,48 +55,48 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -118,19 +118,22 @@
     <t>like</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -557,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -599,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -607,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5787671232876712</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C4">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D4">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -649,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -657,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1782945736434109</v>
+        <v>0.1957364341085271</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D5">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -699,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1587301587301587</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8303571428571429</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +760,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8292682926829268</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +786,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.7833333333333333</v>
+        <v>0.8046875</v>
       </c>
       <c r="L8">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M8">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -801,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -809,13 +812,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -827,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -835,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7586206896551724</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -853,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -861,13 +864,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7421875</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -879,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -887,13 +890,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7254901960784313</v>
+        <v>0.725</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -905,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -939,13 +942,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.71875</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L14">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="M14">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -957,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -965,13 +968,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6901408450704225</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L15">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -983,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -991,13 +994,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6886792452830188</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L16">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="M16">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1009,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1017,13 +1020,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6507936507936508</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1035,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1043,13 +1046,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.5957446808510638</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L18">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M18">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1061,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1069,13 +1072,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1087,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1095,13 +1098,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5319148936170213</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1113,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1147,13 +1150,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.4830287206266319</v>
+        <v>0.4699738903394256</v>
       </c>
       <c r="L22">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M22">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1173,13 +1176,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4529411764705882</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L23">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M23">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1199,13 +1202,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4382022471910113</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1225,13 +1228,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.423728813559322</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L25">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1243,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>170</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1251,13 +1254,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.358974358974359</v>
+        <v>0.4</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1269,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>50</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1277,13 +1280,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3561643835616438</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1303,13 +1306,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.3389121338912134</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L28">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M28">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1321,7 +1324,33 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>158</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>28</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
